--- a/Code/Results/Cases/Case_3_164/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_164/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.89880215503491</v>
+        <v>15.50699654812515</v>
       </c>
       <c r="C2">
-        <v>18.44148999440487</v>
+        <v>10.64534155274959</v>
       </c>
       <c r="D2">
-        <v>10.9440739905897</v>
+        <v>12.2463787708175</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>18.47508420560989</v>
+        <v>26.19612226925073</v>
       </c>
       <c r="G2">
-        <v>15.99068279318508</v>
+        <v>21.77841439143124</v>
       </c>
       <c r="H2">
-        <v>6.975856999813433</v>
+        <v>12.57751115334616</v>
       </c>
       <c r="I2">
-        <v>8.650011352298163</v>
+        <v>16.92113940241933</v>
       </c>
       <c r="J2">
-        <v>8.30926408532769</v>
+        <v>11.25502089938484</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10.745250568197</v>
+        <v>18.20247603018952</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.28978422360934</v>
+        <v>14.68668325018348</v>
       </c>
       <c r="C3">
-        <v>17.29085699395663</v>
+        <v>9.985671679390919</v>
       </c>
       <c r="D3">
-        <v>10.39290531765065</v>
+        <v>12.13780463539512</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>18.03325624937856</v>
+        <v>26.26434819624405</v>
       </c>
       <c r="G3">
-        <v>15.60233467776518</v>
+        <v>21.90666694744682</v>
       </c>
       <c r="H3">
-        <v>7.076206609407211</v>
+        <v>12.64318489558068</v>
       </c>
       <c r="I3">
-        <v>9.09851066534941</v>
+        <v>17.0798041765912</v>
       </c>
       <c r="J3">
-        <v>8.023693798476247</v>
+        <v>11.23424606417158</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.80085073059193</v>
+        <v>18.31531901186841</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.24355405089459</v>
+        <v>14.15775925236431</v>
       </c>
       <c r="C4">
-        <v>16.54414419481668</v>
+        <v>9.556117943716934</v>
       </c>
       <c r="D4">
-        <v>10.04364017218833</v>
+        <v>12.07271666721393</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.78285454506014</v>
+        <v>26.31529312649378</v>
       </c>
       <c r="G4">
-        <v>15.40119081612211</v>
+        <v>21.9972863988707</v>
       </c>
       <c r="H4">
-        <v>7.1451778172308</v>
+        <v>12.68623187677778</v>
       </c>
       <c r="I4">
-        <v>9.381935837621375</v>
+        <v>17.18207778689885</v>
       </c>
       <c r="J4">
-        <v>7.84868840984984</v>
+        <v>11.22376933310073</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.853741731111</v>
+        <v>18.39029633780381</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.80252767026491</v>
+        <v>13.93604057776153</v>
       </c>
       <c r="C5">
-        <v>16.22977568100521</v>
+        <v>9.374934966272598</v>
       </c>
       <c r="D5">
-        <v>9.898751238122308</v>
+        <v>12.04661370161252</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>17.68607823266616</v>
+        <v>26.33831939053733</v>
       </c>
       <c r="G5">
-        <v>15.32843946732618</v>
+        <v>22.03716937751358</v>
       </c>
       <c r="H5">
-        <v>7.175038746267925</v>
+        <v>12.70445809101561</v>
       </c>
       <c r="I5">
-        <v>9.499465701407818</v>
+        <v>17.22497851360752</v>
       </c>
       <c r="J5">
-        <v>7.777552258250085</v>
+        <v>11.22007602236737</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.87973406425291</v>
+        <v>18.42227563440161</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.72840862622679</v>
+        <v>13.89885690138701</v>
       </c>
       <c r="C6">
-        <v>16.17696788735949</v>
+        <v>9.34448006832239</v>
       </c>
       <c r="D6">
-        <v>9.874543342340298</v>
+        <v>12.04230544286845</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>17.67032641828073</v>
+        <v>26.34227939474839</v>
       </c>
       <c r="G6">
-        <v>15.3169094123562</v>
+        <v>22.04396946902625</v>
       </c>
       <c r="H6">
-        <v>7.180100447747082</v>
+        <v>12.70752585091462</v>
       </c>
       <c r="I6">
-        <v>9.519104523681413</v>
+        <v>17.23217612915019</v>
       </c>
       <c r="J6">
-        <v>7.765753942382206</v>
+        <v>11.21949761918819</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.88431010519589</v>
+        <v>18.42767169915272</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.2376656695052</v>
+        <v>14.15479383995668</v>
       </c>
       <c r="C7">
-        <v>16.53994524909131</v>
+        <v>9.553699248393436</v>
       </c>
       <c r="D7">
-        <v>10.04169627502459</v>
+        <v>12.07236289762634</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>17.78152807246558</v>
+        <v>26.31559450779322</v>
       </c>
       <c r="G7">
-        <v>15.40017262609661</v>
+        <v>21.99781235177727</v>
       </c>
       <c r="H7">
-        <v>7.145573548781357</v>
+        <v>12.68647491215915</v>
       </c>
       <c r="I7">
-        <v>9.383512643957472</v>
+        <v>17.18265140345921</v>
       </c>
       <c r="J7">
-        <v>7.847728183088996</v>
+        <v>11.22371718791069</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.85407466478633</v>
+        <v>18.39072185778598</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.35609224414181</v>
+        <v>15.22948540806203</v>
       </c>
       <c r="C8">
-        <v>18.05311494652807</v>
+        <v>10.42298888499467</v>
       </c>
       <c r="D8">
-        <v>10.75637295459027</v>
+        <v>12.20862994319572</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>18.31842362554026</v>
+        <v>26.21776117065962</v>
       </c>
       <c r="G8">
-        <v>15.84896497640604</v>
+        <v>21.82015387799969</v>
       </c>
       <c r="H8">
-        <v>7.008871472262834</v>
+        <v>12.59958998158739</v>
       </c>
       <c r="I8">
-        <v>8.802987713211213</v>
+        <v>16.97484170415712</v>
       </c>
       <c r="J8">
-        <v>8.210784819619782</v>
+        <v>11.24738661318213</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10.76036312122879</v>
+        <v>18.24019963339936</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.04955940428625</v>
+        <v>17.13065215773294</v>
       </c>
       <c r="C9">
-        <v>20.70069069535318</v>
+        <v>11.93240106507209</v>
       </c>
       <c r="D9">
-        <v>12.06591598749133</v>
+        <v>12.48725945304468</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>19.53523222857797</v>
+        <v>26.09819034675818</v>
       </c>
       <c r="G9">
-        <v>17.02820108337909</v>
+        <v>21.56726849384085</v>
       </c>
       <c r="H9">
-        <v>6.803781500185579</v>
+        <v>12.45083805759301</v>
       </c>
       <c r="I9">
-        <v>7.728403096792265</v>
+        <v>16.60568806709608</v>
       </c>
       <c r="J9">
-        <v>8.92161102525503</v>
+        <v>11.31173680942858</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.73762067498101</v>
+        <v>17.99043953607497</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.4854291117829</v>
+        <v>18.39546900999768</v>
       </c>
       <c r="C10">
-        <v>22.45123031330202</v>
+        <v>12.92182824683535</v>
       </c>
       <c r="D10">
-        <v>12.96590779435943</v>
+        <v>12.69741212238864</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>20.52572367750251</v>
+        <v>26.0549385068845</v>
       </c>
       <c r="G10">
-        <v>18.0763204971852</v>
+        <v>21.44138299805644</v>
       </c>
       <c r="H10">
-        <v>6.698366501650592</v>
+        <v>12.35476784586243</v>
       </c>
       <c r="I10">
-        <v>6.978767109141002</v>
+        <v>16.35765246224821</v>
       </c>
       <c r="J10">
-        <v>9.438755496740177</v>
+        <v>11.36971993563802</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>10.83523202922598</v>
+        <v>17.83497818118336</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.53412080173802</v>
+        <v>18.94131213472965</v>
       </c>
       <c r="C11">
-        <v>23.20564093542949</v>
+        <v>13.34598911536303</v>
       </c>
       <c r="D11">
-        <v>13.36100607878981</v>
+        <v>12.79386949925393</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>20.99635411532266</v>
+        <v>26.04503553008625</v>
       </c>
       <c r="G11">
-        <v>18.59137651440365</v>
+        <v>21.39745207105339</v>
       </c>
       <c r="H11">
-        <v>6.661875725249233</v>
+        <v>12.31394081608832</v>
       </c>
       <c r="I11">
-        <v>6.647052907370899</v>
+        <v>16.24980517677766</v>
       </c>
       <c r="J11">
-        <v>9.67218080880366</v>
+        <v>11.39836420093192</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>10.90765258871311</v>
+        <v>17.77041942392786</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.92276862531355</v>
+        <v>19.14370786771673</v>
       </c>
       <c r="C12">
-        <v>23.48532418451046</v>
+        <v>13.50288236226986</v>
       </c>
       <c r="D12">
-        <v>13.50851545228835</v>
+        <v>12.83049098541823</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>21.17737303054546</v>
+        <v>26.04269610767441</v>
       </c>
       <c r="G12">
-        <v>18.79177179805916</v>
+        <v>21.38275847440698</v>
       </c>
       <c r="H12">
-        <v>6.649851393411548</v>
+        <v>12.29889500467186</v>
       </c>
       <c r="I12">
-        <v>6.522884972691384</v>
+        <v>16.20967996927637</v>
       </c>
       <c r="J12">
-        <v>9.760263325050836</v>
+        <v>11.40953142060254</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>10.93934102918781</v>
+        <v>17.74686518067351</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.83944180505734</v>
+        <v>19.10031048563166</v>
       </c>
       <c r="C13">
-        <v>23.42535545882552</v>
+        <v>13.46925830234145</v>
       </c>
       <c r="D13">
-        <v>13.47684091181156</v>
+        <v>12.82260010816901</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.13826401185985</v>
+        <v>26.04313713558075</v>
       </c>
       <c r="G13">
-        <v>18.74837739492839</v>
+        <v>21.38583625940874</v>
       </c>
       <c r="H13">
-        <v>6.652358869367814</v>
+        <v>12.30211693864508</v>
       </c>
       <c r="I13">
-        <v>6.549560179167297</v>
+        <v>16.21828992753261</v>
       </c>
       <c r="J13">
-        <v>9.741307641055924</v>
+        <v>11.40711221341912</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>10.93232319839128</v>
+        <v>17.75189819484274</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.56626438661452</v>
+        <v>18.95804987782726</v>
       </c>
       <c r="C14">
-        <v>23.22877059561785</v>
+        <v>13.3589714951784</v>
       </c>
       <c r="D14">
-        <v>13.37318418208655</v>
+        <v>12.79688062472332</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21.01119095362034</v>
+        <v>26.04481476761044</v>
       </c>
       <c r="G14">
-        <v>18.60775672213769</v>
+        <v>21.39620416432481</v>
       </c>
       <c r="H14">
-        <v>6.660849664007855</v>
+        <v>12.31269467529344</v>
       </c>
       <c r="I14">
-        <v>6.636807763125038</v>
+        <v>16.24648975290878</v>
       </c>
       <c r="J14">
-        <v>9.679433871270342</v>
+        <v>11.39927655112325</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.9101728859253</v>
+        <v>17.76846367115867</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.39783467273357</v>
+        <v>18.87034926806214</v>
       </c>
       <c r="C15">
-        <v>23.10757696165066</v>
+        <v>13.29093235175455</v>
       </c>
       <c r="D15">
-        <v>13.30941607083506</v>
+        <v>12.78113825742877</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>20.93371753012853</v>
+        <v>26.04602620586243</v>
       </c>
       <c r="G15">
-        <v>18.52231526902959</v>
+        <v>21.40280841657928</v>
       </c>
       <c r="H15">
-        <v>6.666288586416299</v>
+        <v>12.31922785367071</v>
       </c>
       <c r="I15">
-        <v>6.690441734886978</v>
+        <v>16.26385589422219</v>
       </c>
       <c r="J15">
-        <v>9.641492714501615</v>
+        <v>11.39451850925077</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.89716711746375</v>
+        <v>17.77872696814267</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.41570545491819</v>
+        <v>18.35919751381395</v>
       </c>
       <c r="C16">
-        <v>22.40108686657315</v>
+        <v>12.89358657852718</v>
       </c>
       <c r="D16">
-        <v>12.93979473972192</v>
+        <v>12.69112325719976</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>20.49536322499007</v>
+        <v>26.05578282485056</v>
       </c>
       <c r="G16">
-        <v>18.04341803416502</v>
+        <v>21.44452446507731</v>
       </c>
       <c r="H16">
-        <v>6.700994202800584</v>
+        <v>12.35749393797023</v>
       </c>
       <c r="I16">
-        <v>7.000640584208879</v>
+        <v>16.3648006247843</v>
       </c>
       <c r="J16">
-        <v>9.423459507485004</v>
+        <v>11.36789310676496</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10.83108360315949</v>
+        <v>17.83932180749447</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.7980373342418</v>
+        <v>18.03801469591115</v>
       </c>
       <c r="C17">
-        <v>21.95696208785952</v>
+        <v>12.64318588971494</v>
       </c>
       <c r="D17">
-        <v>12.70933907225071</v>
+        <v>12.63610161785107</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20.23152282910652</v>
+        <v>26.06427539206682</v>
       </c>
       <c r="G17">
-        <v>17.75933008080318</v>
+        <v>21.47354941404961</v>
       </c>
       <c r="H17">
-        <v>6.725322177717223</v>
+        <v>12.38170617296845</v>
       </c>
       <c r="I17">
-        <v>7.193380448839911</v>
+        <v>16.42800190171332</v>
       </c>
       <c r="J17">
-        <v>9.289197894563324</v>
+        <v>11.35213604734097</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.79789400436236</v>
+        <v>17.87807765476636</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.43717544191759</v>
+        <v>17.8505019716613</v>
       </c>
       <c r="C18">
-        <v>21.69756522319076</v>
+        <v>12.4967206197522</v>
       </c>
       <c r="D18">
-        <v>12.5754416453259</v>
+        <v>12.6045370603571</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20.08166088546977</v>
+        <v>26.07007968962965</v>
       </c>
       <c r="G18">
-        <v>17.5995418489778</v>
+        <v>21.49149760585716</v>
       </c>
       <c r="H18">
-        <v>6.740384753727026</v>
+        <v>12.39590303303506</v>
       </c>
       <c r="I18">
-        <v>7.305105624038275</v>
+        <v>16.46482300623667</v>
       </c>
       <c r="J18">
-        <v>9.211804455641159</v>
+        <v>11.34328680210201</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>10.7814285129478</v>
+        <v>17.90094852590447</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.31403066556732</v>
+        <v>17.78653841175577</v>
       </c>
       <c r="C19">
-        <v>21.6090589709298</v>
+        <v>12.44671066569723</v>
       </c>
       <c r="D19">
-        <v>12.52987692205368</v>
+        <v>12.59386486164566</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.03124774818402</v>
+        <v>26.07220268218027</v>
       </c>
       <c r="G19">
-        <v>17.546064838275</v>
+        <v>21.49778911790501</v>
       </c>
       <c r="H19">
-        <v>6.745664101218344</v>
+        <v>12.40075629699139</v>
       </c>
       <c r="I19">
-        <v>7.343080160716897</v>
+        <v>16.47737070191091</v>
       </c>
       <c r="J19">
-        <v>9.185572857029449</v>
+        <v>11.34032748930855</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>10.77629675435588</v>
+        <v>17.90879153998939</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.86436777103289</v>
+        <v>18.07249300441334</v>
       </c>
       <c r="C20">
-        <v>22.00464832718923</v>
+        <v>12.67009414196964</v>
       </c>
       <c r="D20">
-        <v>12.73401111457536</v>
+        <v>12.64195043810081</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>20.25941387817967</v>
+        <v>26.06327612591104</v>
       </c>
       <c r="G20">
-        <v>17.78919896010867</v>
+        <v>21.47032971003756</v>
       </c>
       <c r="H20">
-        <v>6.722620674934521</v>
+        <v>12.37910072390362</v>
       </c>
       <c r="I20">
-        <v>7.172772684355714</v>
+        <v>16.42122545604828</v>
       </c>
       <c r="J20">
-        <v>9.30350821855383</v>
+        <v>11.35379132648137</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>10.80115371015513</v>
+        <v>17.87389200033929</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.64673245463022</v>
+        <v>18.99995244628752</v>
       </c>
       <c r="C21">
-        <v>23.28667476199396</v>
+        <v>13.3914665300966</v>
       </c>
       <c r="D21">
-        <v>13.4036881260384</v>
+        <v>12.80443270173507</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>21.04843998439261</v>
+        <v>26.04428368662811</v>
       </c>
       <c r="G21">
-        <v>18.64891632661178</v>
+        <v>21.39310596610299</v>
       </c>
       <c r="H21">
-        <v>6.658305829540438</v>
+        <v>12.30957648037458</v>
       </c>
       <c r="I21">
-        <v>6.611140683378856</v>
+        <v>16.23818741794889</v>
       </c>
       <c r="J21">
-        <v>9.697616455077195</v>
+        <v>11.40156943173159</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>10.91656147533195</v>
+        <v>17.76357370602704</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.76228502906005</v>
+        <v>19.58100048359967</v>
       </c>
       <c r="C22">
-        <v>24.08962588065146</v>
+        <v>13.84120257206384</v>
       </c>
       <c r="D22">
-        <v>13.82907567568552</v>
+        <v>12.91116600270492</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.58041032188411</v>
+        <v>26.04009472918874</v>
       </c>
       <c r="G22">
-        <v>19.24192961303192</v>
+        <v>21.35396568991917</v>
       </c>
       <c r="H22">
-        <v>6.626801192427031</v>
+        <v>12.26655485988964</v>
       </c>
       <c r="I22">
-        <v>6.252598421746292</v>
+        <v>16.12272329057875</v>
       </c>
       <c r="J22">
-        <v>9.95336406887332</v>
+        <v>11.434658902457</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.01693506772753</v>
+        <v>17.69668115192311</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.17138147457197</v>
+        <v>19.27319654356414</v>
       </c>
       <c r="C23">
-        <v>23.66425903781463</v>
+        <v>13.60315619512986</v>
       </c>
       <c r="D23">
-        <v>13.60317406209125</v>
+        <v>12.85416014318075</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21.29502184018089</v>
+        <v>26.04157656717802</v>
       </c>
       <c r="G23">
-        <v>18.92262903682271</v>
+        <v>21.37381133463634</v>
       </c>
       <c r="H23">
-        <v>6.642602522213388</v>
+        <v>12.28929487035536</v>
       </c>
       <c r="I23">
-        <v>6.443128871526928</v>
+        <v>16.18396873125217</v>
       </c>
       <c r="J23">
-        <v>9.817046776972317</v>
+        <v>11.41682992585995</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>10.96100942303477</v>
+        <v>17.73190430113004</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.83439771543846</v>
+        <v>18.05691426634444</v>
       </c>
       <c r="C24">
-        <v>21.98310203798681</v>
+        <v>12.6579367287471</v>
       </c>
       <c r="D24">
-        <v>12.72286125793514</v>
+        <v>12.63930597214576</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>20.24679864902782</v>
+        <v>26.06372502317175</v>
       </c>
       <c r="G24">
-        <v>17.77568420942494</v>
+        <v>21.47178141103363</v>
       </c>
       <c r="H24">
-        <v>6.723838683475614</v>
+        <v>12.3802777848783</v>
       </c>
       <c r="I24">
-        <v>7.182086607452044</v>
+        <v>16.42428757350364</v>
       </c>
       <c r="J24">
-        <v>9.297039154745192</v>
+        <v>11.35304232116315</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>10.79967186816065</v>
+        <v>17.87578249856351</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.09941335779241</v>
+        <v>16.63914814481544</v>
       </c>
       <c r="C25">
-        <v>20.01870107960984</v>
+        <v>11.54504315196113</v>
       </c>
       <c r="D25">
-        <v>11.7222089627714</v>
+        <v>12.41081580710405</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>19.18880579414768</v>
+        <v>26.12273975698203</v>
       </c>
       <c r="G25">
-        <v>16.6769900392253</v>
+        <v>21.62527644894307</v>
       </c>
       <c r="H25">
-        <v>6.851841740745539</v>
+        <v>12.48876067588677</v>
       </c>
       <c r="I25">
-        <v>8.012237951285412</v>
+        <v>16.70146840321311</v>
       </c>
       <c r="J25">
-        <v>8.729926624652769</v>
+        <v>11.29243005673429</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.72482916719793</v>
+        <v>18.05310827515256</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_164/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_164/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.50699654812515</v>
+        <v>24.89880215503489</v>
       </c>
       <c r="C2">
-        <v>10.64534155274959</v>
+        <v>18.44148999440497</v>
       </c>
       <c r="D2">
-        <v>12.2463787708175</v>
+        <v>10.94407399058964</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>26.19612226925073</v>
+        <v>18.47508420560992</v>
       </c>
       <c r="G2">
-        <v>21.77841439143124</v>
+        <v>15.99068279318515</v>
       </c>
       <c r="H2">
-        <v>12.57751115334616</v>
+        <v>6.975856999813438</v>
       </c>
       <c r="I2">
-        <v>16.92113940241933</v>
+        <v>8.650011352298263</v>
       </c>
       <c r="J2">
-        <v>11.25502089938484</v>
+        <v>8.309264085327696</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.20247603018952</v>
+        <v>10.74525056819706</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.68668325018348</v>
+        <v>23.28978422360933</v>
       </c>
       <c r="C3">
-        <v>9.985671679390919</v>
+        <v>17.29085699395667</v>
       </c>
       <c r="D3">
-        <v>12.13780463539512</v>
+        <v>10.39290531765058</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.26434819624405</v>
+        <v>18.03325624937855</v>
       </c>
       <c r="G3">
-        <v>21.90666694744682</v>
+        <v>15.60233467776523</v>
       </c>
       <c r="H3">
-        <v>12.64318489558068</v>
+        <v>7.076206609407211</v>
       </c>
       <c r="I3">
-        <v>17.0798041765912</v>
+        <v>9.098510665349476</v>
       </c>
       <c r="J3">
-        <v>11.23424606417158</v>
+        <v>8.023693798476243</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.31531901186841</v>
+        <v>10.80085073059196</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.15775925236431</v>
+        <v>22.24355405089462</v>
       </c>
       <c r="C4">
-        <v>9.556117943716934</v>
+        <v>16.54414419481665</v>
       </c>
       <c r="D4">
-        <v>12.07271666721393</v>
+        <v>10.0436401721883</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.31529312649378</v>
+        <v>17.78285454506014</v>
       </c>
       <c r="G4">
-        <v>21.9972863988707</v>
+        <v>15.40119081612211</v>
       </c>
       <c r="H4">
-        <v>12.68623187677778</v>
+        <v>7.145177817230921</v>
       </c>
       <c r="I4">
-        <v>17.18207778689885</v>
+        <v>9.381935837621382</v>
       </c>
       <c r="J4">
-        <v>11.22376933310073</v>
+        <v>7.84868840984984</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.39029633780381</v>
+        <v>10.85374173111102</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.93604057776153</v>
+        <v>21.802527670265</v>
       </c>
       <c r="C5">
-        <v>9.374934966272598</v>
+        <v>16.22977568100504</v>
       </c>
       <c r="D5">
-        <v>12.04661370161252</v>
+        <v>9.89875123812236</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.33831939053733</v>
+        <v>17.68607823266626</v>
       </c>
       <c r="G5">
-        <v>22.03716937751358</v>
+        <v>15.32843946732627</v>
       </c>
       <c r="H5">
-        <v>12.70445809101561</v>
+        <v>7.175038746267935</v>
       </c>
       <c r="I5">
-        <v>17.22497851360752</v>
+        <v>9.499465701407791</v>
       </c>
       <c r="J5">
-        <v>11.22007602236737</v>
+        <v>7.777552258250045</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.42227563440161</v>
+        <v>10.87973406425294</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.89885690138701</v>
+        <v>21.72840862622675</v>
       </c>
       <c r="C6">
-        <v>9.34448006832239</v>
+        <v>16.1769678873594</v>
       </c>
       <c r="D6">
-        <v>12.04230544286845</v>
+        <v>9.87454334234021</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.34227939474839</v>
+        <v>17.6703264182808</v>
       </c>
       <c r="G6">
-        <v>22.04396946902625</v>
+        <v>15.31690941235644</v>
       </c>
       <c r="H6">
-        <v>12.70752585091462</v>
+        <v>7.180100447747087</v>
       </c>
       <c r="I6">
-        <v>17.23217612915019</v>
+        <v>9.519104523681518</v>
       </c>
       <c r="J6">
-        <v>11.21949761918819</v>
+        <v>7.765753942382226</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.42767169915272</v>
+        <v>10.88431010519593</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.15479383995668</v>
+        <v>22.23766566950518</v>
       </c>
       <c r="C7">
-        <v>9.553699248393436</v>
+        <v>16.5399452490913</v>
       </c>
       <c r="D7">
-        <v>12.07236289762634</v>
+        <v>10.04169627502454</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.31559450779322</v>
+        <v>17.78152807246556</v>
       </c>
       <c r="G7">
-        <v>21.99781235177727</v>
+        <v>15.40017262609668</v>
       </c>
       <c r="H7">
-        <v>12.68647491215915</v>
+        <v>7.145573548781309</v>
       </c>
       <c r="I7">
-        <v>17.18265140345921</v>
+        <v>9.383512643957477</v>
       </c>
       <c r="J7">
-        <v>11.22371718791069</v>
+        <v>7.847728183088996</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.39072185778598</v>
+        <v>10.85407466478634</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.22948540806203</v>
+        <v>24.35609224414181</v>
       </c>
       <c r="C8">
-        <v>10.42298888499467</v>
+        <v>18.05311494652793</v>
       </c>
       <c r="D8">
-        <v>12.20862994319572</v>
+        <v>10.7563729545902</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>26.21776117065962</v>
+        <v>18.31842362554026</v>
       </c>
       <c r="G8">
-        <v>21.82015387799969</v>
+        <v>15.8489649764062</v>
       </c>
       <c r="H8">
-        <v>12.59958998158739</v>
+        <v>7.008871472262839</v>
       </c>
       <c r="I8">
-        <v>16.97484170415712</v>
+        <v>8.802987713211216</v>
       </c>
       <c r="J8">
-        <v>11.24738661318213</v>
+        <v>8.210784819619779</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.24019963339936</v>
+        <v>10.76036312122882</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.13065215773294</v>
+        <v>28.04955940428624</v>
       </c>
       <c r="C9">
-        <v>11.93240106507209</v>
+        <v>20.70069069535316</v>
       </c>
       <c r="D9">
-        <v>12.48725945304468</v>
+        <v>12.06591598749133</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>26.09819034675818</v>
+        <v>19.53523222857807</v>
       </c>
       <c r="G9">
-        <v>21.56726849384085</v>
+        <v>17.02820108337921</v>
       </c>
       <c r="H9">
-        <v>12.45083805759301</v>
+        <v>6.803781500185692</v>
       </c>
       <c r="I9">
-        <v>16.60568806709608</v>
+        <v>7.728403096792374</v>
       </c>
       <c r="J9">
-        <v>11.31173680942858</v>
+        <v>8.921611025255039</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.99043953607497</v>
+        <v>10.73762067498109</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.39546900999768</v>
+        <v>30.48542911178296</v>
       </c>
       <c r="C10">
-        <v>12.92182824683535</v>
+        <v>22.45123031330197</v>
       </c>
       <c r="D10">
-        <v>12.69741212238864</v>
+        <v>12.96590779435943</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.0549385068845</v>
+        <v>20.52572367750249</v>
       </c>
       <c r="G10">
-        <v>21.44138299805644</v>
+        <v>18.07632049718518</v>
       </c>
       <c r="H10">
-        <v>12.35476784586243</v>
+        <v>6.698366501650509</v>
       </c>
       <c r="I10">
-        <v>16.35765246224821</v>
+        <v>6.978767109140882</v>
       </c>
       <c r="J10">
-        <v>11.36971993563802</v>
+        <v>9.438755496740139</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.83497818118336</v>
+        <v>10.83523202922592</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.94131213472965</v>
+        <v>31.53412080173796</v>
       </c>
       <c r="C11">
-        <v>13.34598911536303</v>
+        <v>23.20564093542944</v>
       </c>
       <c r="D11">
-        <v>12.79386949925393</v>
+        <v>13.36100607878976</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>26.04503553008625</v>
+        <v>20.99635411532265</v>
       </c>
       <c r="G11">
-        <v>21.39745207105339</v>
+        <v>18.59137651440367</v>
       </c>
       <c r="H11">
-        <v>12.31394081608832</v>
+        <v>6.661875725249221</v>
       </c>
       <c r="I11">
-        <v>16.24980517677766</v>
+        <v>6.647052907370926</v>
       </c>
       <c r="J11">
-        <v>11.39836420093192</v>
+        <v>9.672180808803654</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.77041942392786</v>
+        <v>10.90765258871314</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.14370786771673</v>
+        <v>31.92276862531348</v>
       </c>
       <c r="C12">
-        <v>13.50288236226986</v>
+        <v>23.48532418451039</v>
       </c>
       <c r="D12">
-        <v>12.83049098541823</v>
+        <v>13.50851545228832</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>26.04269610767441</v>
+        <v>21.1773730305455</v>
       </c>
       <c r="G12">
-        <v>21.38275847440698</v>
+        <v>18.79177179805922</v>
       </c>
       <c r="H12">
-        <v>12.29889500467186</v>
+        <v>6.64985139341165</v>
       </c>
       <c r="I12">
-        <v>16.20967996927637</v>
+        <v>6.522884972691487</v>
       </c>
       <c r="J12">
-        <v>11.40953142060254</v>
+        <v>9.760263325050834</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.74686518067351</v>
+        <v>10.9393410291879</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.10031048563166</v>
+        <v>31.83944180505735</v>
       </c>
       <c r="C13">
-        <v>13.46925830234145</v>
+        <v>23.42535545882551</v>
       </c>
       <c r="D13">
-        <v>12.82260010816901</v>
+        <v>13.47684091181156</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>26.04313713558075</v>
+        <v>21.13826401185986</v>
       </c>
       <c r="G13">
-        <v>21.38583625940874</v>
+        <v>18.74837739492841</v>
       </c>
       <c r="H13">
-        <v>12.30211693864508</v>
+        <v>6.652358869367725</v>
       </c>
       <c r="I13">
-        <v>16.21828992753261</v>
+        <v>6.549560179167245</v>
       </c>
       <c r="J13">
-        <v>11.40711221341912</v>
+        <v>9.741307641055897</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.75189819484274</v>
+        <v>10.93232319839124</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.95804987782726</v>
+        <v>31.5662643866145</v>
       </c>
       <c r="C14">
-        <v>13.3589714951784</v>
+        <v>23.22877059561784</v>
       </c>
       <c r="D14">
-        <v>12.79688062472332</v>
+        <v>13.37318418208659</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.04481476761044</v>
+        <v>21.01119095362039</v>
       </c>
       <c r="G14">
-        <v>21.39620416432481</v>
+        <v>18.60775672213776</v>
       </c>
       <c r="H14">
-        <v>12.31269467529344</v>
+        <v>6.660849664007855</v>
       </c>
       <c r="I14">
-        <v>16.24648975290878</v>
+        <v>6.636807763125047</v>
       </c>
       <c r="J14">
-        <v>11.39927655112325</v>
+        <v>9.679433871270335</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.76846367115867</v>
+        <v>10.9101728859253</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.87034926806214</v>
+        <v>31.39783467273358</v>
       </c>
       <c r="C15">
-        <v>13.29093235175455</v>
+        <v>23.10757696165063</v>
       </c>
       <c r="D15">
-        <v>12.78113825742877</v>
+        <v>13.30941607083508</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>26.04602620586243</v>
+        <v>20.93371753012853</v>
       </c>
       <c r="G15">
-        <v>21.40280841657928</v>
+        <v>18.52231526902958</v>
       </c>
       <c r="H15">
-        <v>12.31922785367071</v>
+        <v>6.666288586416274</v>
       </c>
       <c r="I15">
-        <v>16.26385589422219</v>
+        <v>6.690441734886917</v>
       </c>
       <c r="J15">
-        <v>11.39451850925077</v>
+        <v>9.641492714501627</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.77872696814267</v>
+        <v>10.89716711746372</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.35919751381395</v>
+        <v>30.41570545491823</v>
       </c>
       <c r="C16">
-        <v>12.89358657852718</v>
+        <v>22.40108686657299</v>
       </c>
       <c r="D16">
-        <v>12.69112325719976</v>
+        <v>12.93979473972185</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26.05578282485056</v>
+        <v>20.49536322499013</v>
       </c>
       <c r="G16">
-        <v>21.44452446507731</v>
+        <v>18.04341803416515</v>
       </c>
       <c r="H16">
-        <v>12.35749393797023</v>
+        <v>6.700994202800589</v>
       </c>
       <c r="I16">
-        <v>16.3648006247843</v>
+        <v>7.000640584208895</v>
       </c>
       <c r="J16">
-        <v>11.36789310676496</v>
+        <v>9.423459507484994</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.83932180749447</v>
+        <v>10.83108360315954</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.03801469591115</v>
+        <v>29.79803733424185</v>
       </c>
       <c r="C17">
-        <v>12.64318588971494</v>
+        <v>21.95696208785948</v>
       </c>
       <c r="D17">
-        <v>12.63610161785107</v>
+        <v>12.70933907225068</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>26.06427539206682</v>
+        <v>20.23152282910654</v>
       </c>
       <c r="G17">
-        <v>21.47354941404961</v>
+        <v>17.75933008080329</v>
       </c>
       <c r="H17">
-        <v>12.38170617296845</v>
+        <v>6.72532217771723</v>
       </c>
       <c r="I17">
-        <v>16.42800190171332</v>
+        <v>7.193380448839923</v>
       </c>
       <c r="J17">
-        <v>11.35213604734097</v>
+        <v>9.289197894563326</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.87807765476636</v>
+        <v>10.79789400436241</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.8505019716613</v>
+        <v>29.43717544191756</v>
       </c>
       <c r="C18">
-        <v>12.4967206197522</v>
+        <v>21.69756522319078</v>
       </c>
       <c r="D18">
-        <v>12.6045370603571</v>
+        <v>12.5754416453259</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.07007968962965</v>
+        <v>20.08166088546983</v>
       </c>
       <c r="G18">
-        <v>21.49149760585716</v>
+        <v>17.59954184897787</v>
       </c>
       <c r="H18">
-        <v>12.39590303303506</v>
+        <v>6.740384753727083</v>
       </c>
       <c r="I18">
-        <v>16.46482300623667</v>
+        <v>7.30510562403841</v>
       </c>
       <c r="J18">
-        <v>11.34328680210201</v>
+        <v>9.211804455641174</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.90094852590447</v>
+        <v>10.78142851294783</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.78653841175577</v>
+        <v>29.31403066556731</v>
       </c>
       <c r="C19">
-        <v>12.44671066569723</v>
+        <v>21.6090589709297</v>
       </c>
       <c r="D19">
-        <v>12.59386486164566</v>
+        <v>12.52987692205362</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>26.07220268218027</v>
+        <v>20.03124774818403</v>
       </c>
       <c r="G19">
-        <v>21.49778911790501</v>
+        <v>17.54606483827502</v>
       </c>
       <c r="H19">
-        <v>12.40075629699139</v>
+        <v>6.745664101218398</v>
       </c>
       <c r="I19">
-        <v>16.47737070191091</v>
+        <v>7.343080160716905</v>
       </c>
       <c r="J19">
-        <v>11.34032748930855</v>
+        <v>9.185572857029426</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.90879153998939</v>
+        <v>10.77629675435593</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.07249300441334</v>
+        <v>29.86436777103293</v>
       </c>
       <c r="C20">
-        <v>12.67009414196964</v>
+        <v>22.00464832718922</v>
       </c>
       <c r="D20">
-        <v>12.64195043810081</v>
+        <v>12.73401111457538</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>26.06327612591104</v>
+        <v>20.25941387817961</v>
       </c>
       <c r="G20">
-        <v>21.47032971003756</v>
+        <v>17.78919896010865</v>
       </c>
       <c r="H20">
-        <v>12.37910072390362</v>
+        <v>6.722620674934464</v>
       </c>
       <c r="I20">
-        <v>16.42122545604828</v>
+        <v>7.172772684355682</v>
       </c>
       <c r="J20">
-        <v>11.35379132648137</v>
+        <v>9.303508218553834</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.87389200033929</v>
+        <v>10.80115371015507</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.99995244628752</v>
+        <v>31.64673245463016</v>
       </c>
       <c r="C21">
-        <v>13.3914665300966</v>
+        <v>23.286674761994</v>
       </c>
       <c r="D21">
-        <v>12.80443270173507</v>
+        <v>13.4036881260384</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>26.04428368662811</v>
+        <v>21.04843998439263</v>
       </c>
       <c r="G21">
-        <v>21.39310596610299</v>
+        <v>18.64891632661183</v>
       </c>
       <c r="H21">
-        <v>12.30957648037458</v>
+        <v>6.658305829540432</v>
       </c>
       <c r="I21">
-        <v>16.23818741794889</v>
+        <v>6.611140683378896</v>
       </c>
       <c r="J21">
-        <v>11.40156943173159</v>
+        <v>9.697616455077203</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.76357370602704</v>
+        <v>10.91656147533196</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.58100048359967</v>
+        <v>32.76228502906002</v>
       </c>
       <c r="C22">
-        <v>13.84120257206384</v>
+        <v>24.08962588065142</v>
       </c>
       <c r="D22">
-        <v>12.91116600270492</v>
+        <v>13.82907567568548</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>26.04009472918874</v>
+        <v>21.58041032188413</v>
       </c>
       <c r="G22">
-        <v>21.35396568991917</v>
+        <v>19.24192961303197</v>
       </c>
       <c r="H22">
-        <v>12.26655485988964</v>
+        <v>6.626801192427095</v>
       </c>
       <c r="I22">
-        <v>16.12272329057875</v>
+        <v>6.252598421746304</v>
       </c>
       <c r="J22">
-        <v>11.434658902457</v>
+        <v>9.953364068873299</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.69668115192311</v>
+        <v>11.01693506772755</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.27319654356414</v>
+        <v>32.17138147457197</v>
       </c>
       <c r="C23">
-        <v>13.60315619512986</v>
+        <v>23.66425903781443</v>
       </c>
       <c r="D23">
-        <v>12.85416014318075</v>
+        <v>13.60317406209127</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>26.04157656717802</v>
+        <v>21.29502184018097</v>
       </c>
       <c r="G23">
-        <v>21.37381133463634</v>
+        <v>18.92262903682279</v>
       </c>
       <c r="H23">
-        <v>12.28929487035536</v>
+        <v>6.642602522213306</v>
       </c>
       <c r="I23">
-        <v>16.18396873125217</v>
+        <v>6.443128871526784</v>
       </c>
       <c r="J23">
-        <v>11.41682992585995</v>
+        <v>9.817046776972312</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.73190430113004</v>
+        <v>10.96100942303481</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.05691426634444</v>
+        <v>29.83439771543849</v>
       </c>
       <c r="C24">
-        <v>12.6579367287471</v>
+        <v>21.98310203798674</v>
       </c>
       <c r="D24">
-        <v>12.63930597214576</v>
+        <v>12.72286125793507</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>26.06372502317175</v>
+        <v>20.2467986490278</v>
       </c>
       <c r="G24">
-        <v>21.47178141103363</v>
+        <v>17.77568420942501</v>
       </c>
       <c r="H24">
-        <v>12.3802777848783</v>
+        <v>6.723838683475619</v>
       </c>
       <c r="I24">
-        <v>16.42428757350364</v>
+        <v>7.182086607452052</v>
       </c>
       <c r="J24">
-        <v>11.35304232116315</v>
+        <v>9.297039154745217</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.87578249856351</v>
+        <v>10.79967186816066</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.63914814481544</v>
+        <v>27.09941335779244</v>
       </c>
       <c r="C25">
-        <v>11.54504315196113</v>
+        <v>20.01870107960976</v>
       </c>
       <c r="D25">
-        <v>12.41081580710405</v>
+        <v>11.72220896277136</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>26.12273975698203</v>
+        <v>19.18880579414775</v>
       </c>
       <c r="G25">
-        <v>21.62527644894307</v>
+        <v>16.67699003922547</v>
       </c>
       <c r="H25">
-        <v>12.48876067588677</v>
+        <v>6.851841740745653</v>
       </c>
       <c r="I25">
-        <v>16.70146840321311</v>
+        <v>8.012237951285513</v>
       </c>
       <c r="J25">
-        <v>11.29243005673429</v>
+        <v>8.72992662465281</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.05310827515256</v>
+        <v>10.72482916719803</v>
       </c>
     </row>
   </sheetData>
